--- a/corona-virus-cases_Aug_07_2020.xlsx
+++ b/corona-virus-cases_Aug_07_2020.xlsx
@@ -217,12 +217,12 @@
     <t>Japan</t>
   </si>
   <si>
+    <t>Ghana</t>
+  </si>
+  <si>
     <t>Armenia</t>
   </si>
   <si>
-    <t>Ghana</t>
-  </si>
-  <si>
     <t>Kyrgyzstan</t>
   </si>
   <si>
@@ -259,12 +259,12 @@
     <t>Venezuela</t>
   </si>
   <si>
+    <t>Nepal</t>
+  </si>
+  <si>
     <t>Austria</t>
   </si>
   <si>
-    <t>Nepal</t>
-  </si>
-  <si>
     <t>Costa Rica</t>
   </si>
   <si>
@@ -454,12 +454,12 @@
     <t>Guinea-Bissau</t>
   </si>
   <si>
+    <t>Iceland</t>
+  </si>
+  <si>
     <t>Benin</t>
   </si>
   <si>
-    <t>Iceland</t>
-  </si>
-  <si>
     <t>Sierra Leone</t>
   </si>
   <si>
@@ -508,12 +508,12 @@
     <t>Syria</t>
   </si>
   <si>
+    <t>Malta</t>
+  </si>
+  <si>
     <t>Jamaica</t>
   </si>
   <si>
-    <t>Malta</t>
-  </si>
-  <si>
     <t>Andorra</t>
   </si>
   <si>
@@ -529,10 +529,10 @@
     <t>Botswana</t>
   </si>
   <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
     <t>Bahamas</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
   </si>
   <si>
     <t>Lesotho</t>
@@ -1134,37 +1134,37 @@
         <v>17</v>
       </c>
       <c r="C2">
-        <v>5032805</v>
+        <v>5033723</v>
       </c>
       <c r="D2">
-        <v>626</v>
+        <v>1544</v>
       </c>
       <c r="E2">
-        <v>162812</v>
+        <v>162836</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="G2">
-        <v>2577349</v>
+        <v>2577914</v>
       </c>
       <c r="H2">
-        <v>681</v>
+        <v>1246</v>
       </c>
       <c r="I2">
-        <v>2292644</v>
+        <v>2292973</v>
       </c>
       <c r="J2">
         <v>18296</v>
       </c>
       <c r="K2">
-        <v>15196</v>
+        <v>15199</v>
       </c>
       <c r="L2">
         <v>492</v>
       </c>
       <c r="M2">
-        <v>63143120</v>
+        <v>63143252</v>
       </c>
       <c r="N2">
         <v>190651</v>
@@ -1246,31 +1246,31 @@
         <v>19</v>
       </c>
       <c r="C4">
-        <v>2030001</v>
+        <v>2035337</v>
       </c>
       <c r="D4">
-        <v>4592</v>
+        <v>9928</v>
       </c>
       <c r="E4">
-        <v>41673</v>
+        <v>41713</v>
       </c>
       <c r="F4">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G4">
-        <v>1378642</v>
+        <v>1382471</v>
       </c>
       <c r="H4">
-        <v>1258</v>
+        <v>5087</v>
       </c>
       <c r="I4">
-        <v>609686</v>
+        <v>611153</v>
       </c>
       <c r="J4">
         <v>8944</v>
       </c>
       <c r="K4">
-        <v>1470</v>
+        <v>1473</v>
       </c>
       <c r="L4">
         <v>30</v>
@@ -1285,10 +1285,10 @@
         <v>1381345024</v>
       </c>
       <c r="P4">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="Q4">
-        <v>33147</v>
+        <v>33115</v>
       </c>
       <c r="R4">
         <v>61</v>
@@ -1806,52 +1806,52 @@
         <v>29</v>
       </c>
       <c r="C14">
-        <v>284226</v>
+        <v>285793</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1567</v>
       </c>
       <c r="E14">
-        <v>3055</v>
+        <v>3093</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G14">
-        <v>247089</v>
+        <v>248948</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1859</v>
       </c>
       <c r="I14">
-        <v>34082</v>
+        <v>33752</v>
       </c>
       <c r="J14">
-        <v>1915</v>
+        <v>1892</v>
       </c>
       <c r="K14">
-        <v>8152</v>
+        <v>8197</v>
       </c>
       <c r="L14">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M14">
-        <v>3635705</v>
+        <v>3694004</v>
       </c>
       <c r="N14">
-        <v>104277</v>
+        <v>105949</v>
       </c>
       <c r="O14">
         <v>34865920</v>
       </c>
       <c r="P14">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q14">
-        <v>11413</v>
+        <v>11273</v>
       </c>
       <c r="R14">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2254,52 +2254,52 @@
         <v>37</v>
       </c>
       <c r="C22">
-        <v>140603</v>
+        <v>144064</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>3461</v>
       </c>
       <c r="E22">
-        <v>5161</v>
+        <v>5236</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G22">
-        <v>101025</v>
+        <v>103197</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2172</v>
       </c>
       <c r="I22">
-        <v>34417</v>
+        <v>35631</v>
       </c>
       <c r="J22">
-        <v>517</v>
+        <v>566</v>
       </c>
       <c r="K22">
-        <v>3488</v>
+        <v>3574</v>
       </c>
       <c r="L22">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M22">
-        <v>1092741</v>
+        <v>1110258</v>
       </c>
       <c r="N22">
-        <v>27111</v>
+        <v>27546</v>
       </c>
       <c r="O22">
         <v>40306024</v>
       </c>
       <c r="P22">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="Q22">
-        <v>7810</v>
+        <v>7698</v>
       </c>
       <c r="R22">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2340,10 +2340,10 @@
         <v>20</v>
       </c>
       <c r="M23">
-        <v>1669996</v>
+        <v>1703805</v>
       </c>
       <c r="N23">
-        <v>15220</v>
+        <v>15528</v>
       </c>
       <c r="O23">
         <v>109722720</v>
@@ -2355,7 +2355,7 @@
         <v>50610</v>
       </c>
       <c r="R23">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2396,10 +2396,10 @@
         <v>20</v>
       </c>
       <c r="M24">
-        <v>1633156</v>
+        <v>1663315</v>
       </c>
       <c r="N24">
-        <v>5965</v>
+        <v>6075</v>
       </c>
       <c r="O24">
         <v>273808352</v>
@@ -2411,7 +2411,7 @@
         <v>48956</v>
       </c>
       <c r="R24">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2478,40 +2478,40 @@
         <v>41</v>
       </c>
       <c r="C26">
-        <v>112092</v>
+        <v>112383</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>291</v>
       </c>
       <c r="E26">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G26">
-        <v>108831</v>
+        <v>109142</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>311</v>
       </c>
       <c r="I26">
-        <v>3083</v>
+        <v>3061</v>
       </c>
       <c r="J26">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K26">
-        <v>39922</v>
+        <v>40025</v>
       </c>
       <c r="L26">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M26">
-        <v>511000</v>
+        <v>513930</v>
       </c>
       <c r="N26">
-        <v>181993</v>
+        <v>183036</v>
       </c>
       <c r="O26">
         <v>2807805</v>
@@ -2520,7 +2520,7 @@
         <v>25</v>
       </c>
       <c r="Q26">
-        <v>15774</v>
+        <v>15599</v>
       </c>
       <c r="R26">
         <v>5</v>
@@ -2814,16 +2814,16 @@
         <v>47</v>
       </c>
       <c r="C32">
-        <v>81967</v>
+        <v>82323</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E32">
-        <v>5766</v>
+        <v>5763</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2838,10 +2838,10 @@
         <v>34</v>
       </c>
       <c r="K32">
-        <v>8111</v>
+        <v>8146</v>
       </c>
       <c r="L32">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="M32">
         <v>863315</v>
@@ -2856,7 +2856,7 @@
         <v>123</v>
       </c>
       <c r="Q32">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="R32">
         <v>12</v>
@@ -3124,10 +3124,10 @@
         <v>850</v>
       </c>
       <c r="M37">
-        <v>1767120</v>
+        <v>1791554</v>
       </c>
       <c r="N37">
-        <v>152407</v>
+        <v>154514</v>
       </c>
       <c r="O37">
         <v>11594739</v>
@@ -3139,7 +3139,7 @@
         <v>1176</v>
       </c>
       <c r="R37">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3206,49 +3206,49 @@
         <v>54</v>
       </c>
       <c r="C39">
-        <v>70045</v>
+        <v>70727</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>682</v>
       </c>
       <c r="E39">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G39">
-        <v>61610</v>
+        <v>62330</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="I39">
-        <v>7966</v>
+        <v>7926</v>
       </c>
       <c r="J39">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K39">
-        <v>16378</v>
+        <v>16538</v>
       </c>
       <c r="L39">
         <v>110</v>
       </c>
       <c r="M39">
-        <v>522200</v>
+        <v>526286</v>
       </c>
       <c r="N39">
-        <v>122105</v>
+        <v>123060</v>
       </c>
       <c r="O39">
         <v>4276658</v>
       </c>
       <c r="P39">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q39">
-        <v>9119</v>
+        <v>9080</v>
       </c>
       <c r="R39">
         <v>8</v>
@@ -3318,40 +3318,40 @@
         <v>56</v>
       </c>
       <c r="C41">
-        <v>61845</v>
+        <v>62061</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="E41">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G41">
-        <v>55739</v>
+        <v>56015</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="I41">
-        <v>5752</v>
+        <v>5690</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>6246</v>
+        <v>6267</v>
       </c>
       <c r="L41">
         <v>36</v>
       </c>
       <c r="M41">
-        <v>5262658</v>
+        <v>5375365</v>
       </c>
       <c r="N41">
-        <v>531470</v>
+        <v>542852</v>
       </c>
       <c r="O41">
         <v>9902079</v>
@@ -3360,7 +3360,7 @@
         <v>160</v>
       </c>
       <c r="Q41">
-        <v>27972</v>
+        <v>27815</v>
       </c>
       <c r="R41">
         <v>2</v>
@@ -3430,16 +3430,16 @@
         <v>58</v>
       </c>
       <c r="C43">
-        <v>56982</v>
+        <v>57501</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>519</v>
       </c>
       <c r="E43">
-        <v>6153</v>
+        <v>6154</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -3451,10 +3451,10 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K43">
-        <v>3325</v>
+        <v>3355</v>
       </c>
       <c r="L43">
         <v>359</v>
@@ -3469,7 +3469,7 @@
         <v>17138756</v>
       </c>
       <c r="P43">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="Q43">
         <v>2785</v>
@@ -3796,10 +3796,10 @@
         <v>5</v>
       </c>
       <c r="M49">
-        <v>306894</v>
+        <v>310729</v>
       </c>
       <c r="N49">
-        <v>1485</v>
+        <v>1504</v>
       </c>
       <c r="O49">
         <v>206606304</v>
@@ -3811,7 +3811,7 @@
         <v>222157</v>
       </c>
       <c r="R49">
-        <v>673</v>
+        <v>665</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -3828,10 +3828,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G50">
         <v>39945</v>
@@ -3840,16 +3840,16 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>2788</v>
+        <v>2786</v>
       </c>
       <c r="J50">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K50">
         <v>25130</v>
       </c>
       <c r="L50">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M50">
         <v>876700</v>
@@ -3864,7 +3864,7 @@
         <v>40</v>
       </c>
       <c r="Q50">
-        <v>10940</v>
+        <v>10802</v>
       </c>
       <c r="R50">
         <v>2</v>
@@ -3934,52 +3934,52 @@
         <v>67</v>
       </c>
       <c r="C52">
-        <v>39985</v>
+        <v>40097</v>
       </c>
       <c r="D52">
-        <v>166</v>
+        <v>455</v>
       </c>
       <c r="E52">
-        <v>777</v>
+        <v>206</v>
       </c>
       <c r="F52">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G52">
-        <v>32008</v>
+        <v>36638</v>
       </c>
       <c r="H52">
-        <v>452</v>
+        <v>254</v>
       </c>
       <c r="I52">
-        <v>7200</v>
+        <v>3253</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K52">
-        <v>13491</v>
+        <v>1288</v>
       </c>
       <c r="L52">
-        <v>262</v>
+        <v>7</v>
       </c>
       <c r="M52">
-        <v>172994</v>
+        <v>405817</v>
       </c>
       <c r="N52">
-        <v>58369</v>
+        <v>13035</v>
       </c>
       <c r="O52">
-        <v>2963811</v>
+        <v>31133484</v>
       </c>
       <c r="P52">
-        <v>74</v>
+        <v>776</v>
       </c>
       <c r="Q52">
-        <v>3814</v>
+        <v>151133</v>
       </c>
       <c r="R52">
-        <v>17</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -3990,52 +3990,52 @@
         <v>68</v>
       </c>
       <c r="C53">
-        <v>39642</v>
+        <v>39985</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="E53">
-        <v>199</v>
+        <v>777</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G53">
-        <v>36384</v>
+        <v>32008</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>452</v>
       </c>
       <c r="I53">
-        <v>3059</v>
+        <v>7200</v>
       </c>
       <c r="J53">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K53">
-        <v>1273</v>
+        <v>13491</v>
       </c>
       <c r="L53">
-        <v>6</v>
+        <v>262</v>
       </c>
       <c r="M53">
-        <v>405817</v>
+        <v>172994</v>
       </c>
       <c r="N53">
-        <v>13035</v>
+        <v>58369</v>
       </c>
       <c r="O53">
-        <v>31133484</v>
+        <v>2963811</v>
       </c>
       <c r="P53">
-        <v>785</v>
+        <v>74</v>
       </c>
       <c r="Q53">
-        <v>156450</v>
+        <v>3814</v>
       </c>
       <c r="R53">
-        <v>77</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4102,16 +4102,16 @@
         <v>70</v>
       </c>
       <c r="C55">
-        <v>36968</v>
+        <v>37015</v>
       </c>
       <c r="D55">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="E55">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="F55">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G55">
         <v>25903</v>
@@ -4120,34 +4120,34 @@
         <v>63</v>
       </c>
       <c r="I55">
-        <v>9763</v>
+        <v>9805</v>
       </c>
       <c r="J55">
         <v>31</v>
       </c>
       <c r="K55">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="L55">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M55">
-        <v>90845</v>
+        <v>92585</v>
       </c>
       <c r="N55">
-        <v>2329</v>
+        <v>2373</v>
       </c>
       <c r="O55">
         <v>39009448</v>
       </c>
       <c r="P55">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="Q55">
-        <v>29961</v>
+        <v>29847</v>
       </c>
       <c r="R55">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4270,49 +4270,49 @@
         <v>73</v>
       </c>
       <c r="C58">
-        <v>33247</v>
+        <v>33376</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="E58">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G58">
-        <v>29275</v>
+        <v>29696</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>421</v>
       </c>
       <c r="I58">
-        <v>3493</v>
+        <v>3197</v>
       </c>
       <c r="J58">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="K58">
-        <v>3276</v>
+        <v>3289</v>
       </c>
       <c r="L58">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M58">
-        <v>766179</v>
+        <v>773051</v>
       </c>
       <c r="N58">
-        <v>75499</v>
+        <v>76176</v>
       </c>
       <c r="O58">
         <v>10148243</v>
       </c>
       <c r="P58">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q58">
-        <v>21186</v>
+        <v>21011</v>
       </c>
       <c r="R58">
         <v>13</v>
@@ -4718,52 +4718,52 @@
         <v>81</v>
       </c>
       <c r="C66">
-        <v>21837</v>
+        <v>22214</v>
       </c>
       <c r="D66">
-        <v>141</v>
+        <v>464</v>
       </c>
       <c r="E66">
-        <v>720</v>
+        <v>70</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G66">
-        <v>19690</v>
+        <v>15814</v>
       </c>
       <c r="H66">
-        <v>94</v>
+        <v>425</v>
       </c>
       <c r="I66">
-        <v>1427</v>
+        <v>6330</v>
       </c>
       <c r="J66">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K66">
-        <v>2423</v>
+        <v>761</v>
       </c>
       <c r="L66">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="M66">
-        <v>947305</v>
+        <v>739903</v>
       </c>
       <c r="N66">
-        <v>105121</v>
+        <v>25351</v>
       </c>
       <c r="O66">
-        <v>9011577</v>
+        <v>29186486</v>
       </c>
       <c r="P66">
-        <v>413</v>
+        <v>1314</v>
       </c>
       <c r="Q66">
-        <v>12516</v>
+        <v>416950</v>
       </c>
       <c r="R66">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4774,52 +4774,52 @@
         <v>82</v>
       </c>
       <c r="C67">
-        <v>21750</v>
+        <v>21837</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="E67">
-        <v>65</v>
+        <v>720</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67">
-        <v>15389</v>
+        <v>19690</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="I67">
-        <v>6296</v>
+        <v>1427</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K67">
-        <v>745</v>
+        <v>2423</v>
       </c>
       <c r="L67">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="M67">
-        <v>731977</v>
+        <v>947305</v>
       </c>
       <c r="N67">
-        <v>25079</v>
+        <v>105121</v>
       </c>
       <c r="O67">
-        <v>29186486</v>
+        <v>9011577</v>
       </c>
       <c r="P67">
-        <v>1342</v>
+        <v>413</v>
       </c>
       <c r="Q67">
-        <v>449023</v>
+        <v>12516</v>
       </c>
       <c r="R67">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5278,10 +5278,10 @@
         <v>91</v>
       </c>
       <c r="C76">
-        <v>14306</v>
+        <v>14442</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="E76">
         <v>617</v>
@@ -5290,40 +5290,40 @@
         <v>0</v>
       </c>
       <c r="G76">
-        <v>12787</v>
+        <v>12840</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="I76">
-        <v>902</v>
+        <v>985</v>
       </c>
       <c r="J76">
         <v>2</v>
       </c>
       <c r="K76">
-        <v>2469</v>
+        <v>2492</v>
       </c>
       <c r="L76">
         <v>106</v>
       </c>
       <c r="M76">
-        <v>1654512</v>
+        <v>1680226</v>
       </c>
       <c r="N76">
-        <v>285542</v>
+        <v>289980</v>
       </c>
       <c r="O76">
         <v>5794279</v>
       </c>
       <c r="P76">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="Q76">
         <v>9391</v>
       </c>
       <c r="R76">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5334,31 +5334,31 @@
         <v>92</v>
       </c>
       <c r="C77">
-        <v>13398</v>
+        <v>13722</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="E77">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G77">
-        <v>6907</v>
+        <v>7210</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>303</v>
       </c>
       <c r="I77">
-        <v>6399</v>
+        <v>6418</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
       <c r="K77">
-        <v>2621</v>
+        <v>2684</v>
       </c>
       <c r="L77">
         <v>18</v>
@@ -5373,10 +5373,10 @@
         <v>5112340</v>
       </c>
       <c r="P77">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="Q77">
-        <v>55569</v>
+        <v>54387</v>
       </c>
       <c r="R77">
         <v>26</v>
@@ -5390,49 +5390,49 @@
         <v>93</v>
       </c>
       <c r="C78">
-        <v>13396</v>
+        <v>13687</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>291</v>
       </c>
       <c r="E78">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G78">
-        <v>7042</v>
+        <v>7373</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>331</v>
       </c>
       <c r="I78">
-        <v>5970</v>
+        <v>5920</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="K78">
-        <v>4086</v>
+        <v>4175</v>
       </c>
       <c r="L78">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M78">
-        <v>147021</v>
+        <v>148090</v>
       </c>
       <c r="N78">
-        <v>44842</v>
+        <v>45168</v>
       </c>
       <c r="O78">
         <v>3278650</v>
       </c>
       <c r="P78">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="Q78">
-        <v>8538</v>
+        <v>8321</v>
       </c>
       <c r="R78">
         <v>22</v>
@@ -5502,52 +5502,52 @@
         <v>95</v>
       </c>
       <c r="C80">
-        <v>12526</v>
+        <v>12708</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="E80">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80">
-        <v>10148</v>
+        <v>10412</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="I80">
-        <v>2244</v>
+        <v>2161</v>
       </c>
       <c r="J80">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K80">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="L80">
         <v>5</v>
       </c>
       <c r="M80">
-        <v>46301</v>
+        <v>47022</v>
       </c>
       <c r="N80">
-        <v>1668</v>
+        <v>1694</v>
       </c>
       <c r="O80">
         <v>27755708</v>
       </c>
       <c r="P80">
-        <v>2216</v>
+        <v>2184</v>
       </c>
       <c r="Q80">
-        <v>207132</v>
+        <v>205598</v>
       </c>
       <c r="R80">
-        <v>599</v>
+        <v>590</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5670,52 +5670,52 @@
         <v>98</v>
       </c>
       <c r="C83">
-        <v>10715</v>
+        <v>10887</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="E83">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G83">
-        <v>7101</v>
+        <v>7186</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="I83">
-        <v>3391</v>
+        <v>3476</v>
       </c>
       <c r="J83">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="K83">
-        <v>638</v>
+        <v>649</v>
       </c>
       <c r="L83">
         <v>13</v>
       </c>
       <c r="M83">
-        <v>114761</v>
+        <v>116472</v>
       </c>
       <c r="N83">
-        <v>6838</v>
+        <v>6940</v>
       </c>
       <c r="O83">
         <v>16783876</v>
       </c>
       <c r="P83">
-        <v>1566</v>
+        <v>1542</v>
       </c>
       <c r="Q83">
-        <v>75264</v>
+        <v>74595</v>
       </c>
       <c r="R83">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5782,25 +5782,25 @@
         <v>100</v>
       </c>
       <c r="C85">
-        <v>9309</v>
+        <v>9355</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E85">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G85">
-        <v>8048</v>
+        <v>8174</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="I85">
-        <v>1046</v>
+        <v>963</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -5821,10 +5821,10 @@
         <v>89802184</v>
       </c>
       <c r="P85">
-        <v>9647</v>
+        <v>9599</v>
       </c>
       <c r="Q85">
-        <v>417685</v>
+        <v>411937</v>
       </c>
       <c r="R85">
         <v>0</v>
@@ -6204,10 +6204,10 @@
         <v>60</v>
       </c>
       <c r="M92">
-        <v>389500</v>
+        <v>398554</v>
       </c>
       <c r="N92">
-        <v>70287</v>
+        <v>71920</v>
       </c>
       <c r="O92">
         <v>5541604</v>
@@ -6230,52 +6230,52 @@
         <v>108</v>
       </c>
       <c r="C93">
-        <v>7164</v>
+        <v>7486</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="E93">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93">
-        <v>5786</v>
+        <v>6264</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="I93">
-        <v>1179</v>
+        <v>1022</v>
       </c>
       <c r="J93">
         <v>0</v>
       </c>
       <c r="K93">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="L93">
         <v>11</v>
       </c>
       <c r="M93">
-        <v>90307</v>
+        <v>92341</v>
       </c>
       <c r="N93">
-        <v>4900</v>
+        <v>5010</v>
       </c>
       <c r="O93">
         <v>18430128</v>
       </c>
       <c r="P93">
-        <v>2573</v>
+        <v>2462</v>
       </c>
       <c r="Q93">
-        <v>92614</v>
+        <v>92151</v>
       </c>
       <c r="R93">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6566,10 +6566,10 @@
         <v>114</v>
       </c>
       <c r="C99">
-        <v>5404</v>
+        <v>5466</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E99">
         <v>155</v>
@@ -6578,40 +6578,40 @@
         <v>0</v>
       </c>
       <c r="G99">
-        <v>4688</v>
+        <v>4758</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I99">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="J99">
         <v>7</v>
       </c>
       <c r="K99">
-        <v>1317</v>
+        <v>1332</v>
       </c>
       <c r="L99">
         <v>38</v>
       </c>
       <c r="M99">
-        <v>125317</v>
+        <v>126410</v>
       </c>
       <c r="N99">
-        <v>30546</v>
+        <v>30812</v>
       </c>
       <c r="O99">
         <v>4102577</v>
       </c>
       <c r="P99">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="Q99">
         <v>26468</v>
       </c>
       <c r="R99">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -8358,52 +8358,52 @@
         <v>146</v>
       </c>
       <c r="C131">
-        <v>1936</v>
+        <v>1952</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E131">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="F131">
         <v>0</v>
       </c>
       <c r="G131">
-        <v>1600</v>
+        <v>1833</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I131">
-        <v>298</v>
+        <v>109</v>
       </c>
       <c r="J131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K131">
-        <v>159</v>
+        <v>5717</v>
       </c>
       <c r="L131">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="M131">
-        <v>93677</v>
+        <v>152694</v>
       </c>
       <c r="N131">
-        <v>7709</v>
+        <v>447173</v>
       </c>
       <c r="O131">
-        <v>12151976</v>
+        <v>341465</v>
       </c>
       <c r="P131">
-        <v>6277</v>
+        <v>175</v>
       </c>
       <c r="Q131">
-        <v>319789</v>
+        <v>34147</v>
       </c>
       <c r="R131">
-        <v>130</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8414,52 +8414,52 @@
         <v>147</v>
       </c>
       <c r="C132">
-        <v>1932</v>
+        <v>1936</v>
       </c>
       <c r="D132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E132">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F132">
         <v>0</v>
       </c>
       <c r="G132">
-        <v>1825</v>
+        <v>1600</v>
       </c>
       <c r="H132">
         <v>0</v>
       </c>
       <c r="I132">
-        <v>97</v>
+        <v>298</v>
       </c>
       <c r="J132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K132">
-        <v>5658</v>
+        <v>159</v>
       </c>
       <c r="L132">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="M132">
-        <v>149693</v>
+        <v>93677</v>
       </c>
       <c r="N132">
-        <v>438385</v>
+        <v>7709</v>
       </c>
       <c r="O132">
-        <v>341465</v>
+        <v>12151976</v>
       </c>
       <c r="P132">
-        <v>177</v>
+        <v>6277</v>
       </c>
       <c r="Q132">
-        <v>34147</v>
+        <v>319789</v>
       </c>
       <c r="R132">
-        <v>2</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -9366,52 +9366,52 @@
         <v>164</v>
       </c>
       <c r="C149">
-        <v>958</v>
+        <v>995</v>
       </c>
       <c r="D149">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E149">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F149">
         <v>0</v>
       </c>
       <c r="G149">
-        <v>745</v>
+        <v>675</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I149">
-        <v>201</v>
+        <v>311</v>
       </c>
       <c r="J149">
         <v>0</v>
       </c>
       <c r="K149">
-        <v>323</v>
+        <v>2253</v>
       </c>
       <c r="L149">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M149">
-        <v>41840</v>
+        <v>138430</v>
       </c>
       <c r="N149">
-        <v>14123</v>
+        <v>313429</v>
       </c>
       <c r="O149">
-        <v>2962478</v>
+        <v>441663</v>
       </c>
       <c r="P149">
-        <v>3092</v>
+        <v>444</v>
       </c>
       <c r="Q149">
-        <v>246873</v>
+        <v>49074</v>
       </c>
       <c r="R149">
-        <v>71</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9422,52 +9422,52 @@
         <v>165</v>
       </c>
       <c r="C150">
-        <v>946</v>
+        <v>958</v>
       </c>
       <c r="D150">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E150">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F150">
         <v>0</v>
       </c>
       <c r="G150">
-        <v>670</v>
+        <v>745</v>
       </c>
       <c r="H150">
         <v>0</v>
       </c>
       <c r="I150">
-        <v>267</v>
+        <v>201</v>
       </c>
       <c r="J150">
         <v>0</v>
       </c>
       <c r="K150">
-        <v>2142</v>
+        <v>323</v>
       </c>
       <c r="L150">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M150">
-        <v>136713</v>
+        <v>41840</v>
       </c>
       <c r="N150">
-        <v>309541</v>
+        <v>14123</v>
       </c>
       <c r="O150">
-        <v>441663</v>
+        <v>2962478</v>
       </c>
       <c r="P150">
-        <v>467</v>
+        <v>3092</v>
       </c>
       <c r="Q150">
-        <v>49074</v>
+        <v>246873</v>
       </c>
       <c r="R150">
-        <v>3</v>
+        <v>71</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9758,52 +9758,52 @@
         <v>171</v>
       </c>
       <c r="C156">
-        <v>761</v>
+        <v>784</v>
       </c>
       <c r="D156">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E156">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F156">
         <v>0</v>
       </c>
       <c r="G156">
-        <v>91</v>
+        <v>395</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I156">
-        <v>656</v>
+        <v>379</v>
       </c>
       <c r="J156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K156">
-        <v>1933</v>
+        <v>8</v>
       </c>
       <c r="L156">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="M156">
-        <v>4814</v>
+        <v>482456</v>
       </c>
       <c r="N156">
-        <v>12230</v>
+        <v>4952</v>
       </c>
       <c r="O156">
-        <v>393616</v>
+        <v>97425472</v>
       </c>
       <c r="P156">
-        <v>517</v>
+        <v>124267</v>
       </c>
       <c r="Q156">
-        <v>28115</v>
+        <v>9742547</v>
       </c>
       <c r="R156">
-        <v>82</v>
+        <v>202</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9814,52 +9814,52 @@
         <v>172</v>
       </c>
       <c r="C157">
-        <v>750</v>
+        <v>761</v>
       </c>
       <c r="D157">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E157">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F157">
         <v>0</v>
       </c>
       <c r="G157">
-        <v>392</v>
+        <v>91</v>
       </c>
       <c r="H157">
         <v>0</v>
       </c>
       <c r="I157">
-        <v>348</v>
+        <v>656</v>
       </c>
       <c r="J157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K157">
-        <v>8</v>
+        <v>1933</v>
       </c>
       <c r="L157">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="M157">
-        <v>482456</v>
+        <v>4814</v>
       </c>
       <c r="N157">
-        <v>4952</v>
+        <v>12230</v>
       </c>
       <c r="O157">
-        <v>97425472</v>
+        <v>393616</v>
       </c>
       <c r="P157">
-        <v>129901</v>
+        <v>517</v>
       </c>
       <c r="Q157">
-        <v>9742547</v>
+        <v>28115</v>
       </c>
       <c r="R157">
-        <v>202</v>
+        <v>82</v>
       </c>
     </row>
     <row r="158" spans="1:18">

--- a/corona-virus-cases_Aug_07_2020.xlsx
+++ b/corona-virus-cases_Aug_07_2020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="240">
   <si>
     <t>Country</t>
   </si>
@@ -67,6 +67,9 @@
     <t>1 Test every X ppl</t>
   </si>
   <si>
+    <t>Region</t>
+  </si>
+  <si>
     <t>USA</t>
   </si>
   <si>
@@ -710,6 +713,27 @@
   </si>
   <si>
     <t>Anguilla</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>South America</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Australia/Oceania</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -1067,13 +1091,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R216"/>
+  <dimension ref="A1:S216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1125,13 +1149,16 @@
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>5033723</v>
@@ -1181,13 +1208,16 @@
       <c r="R2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>2917562</v>
@@ -1237,13 +1267,16 @@
       <c r="R3">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>2035337</v>
@@ -1293,13 +1326,16 @@
       <c r="R4">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>877135</v>
@@ -1349,13 +1385,16 @@
       <c r="R5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>538184</v>
@@ -1405,13 +1444,16 @@
       <c r="R6">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>462690</v>
@@ -1461,13 +1503,16 @@
       <c r="R7">
         <v>122</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>455409</v>
@@ -1517,13 +1562,16 @@
       <c r="R8">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>366671</v>
@@ -1573,13 +1621,16 @@
       <c r="R9">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>357710</v>
@@ -1629,13 +1680,16 @@
       <c r="R10">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>354530</v>
@@ -1685,13 +1739,16 @@
       <c r="R11">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>322567</v>
@@ -1741,13 +1798,16 @@
       <c r="R12">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13">
         <v>308134</v>
@@ -1797,13 +1857,16 @@
       <c r="R13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>285793</v>
@@ -1853,13 +1916,16 @@
       <c r="R14">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15">
         <v>282645</v>
@@ -1909,13 +1975,16 @@
       <c r="R15">
         <v>106</v>
       </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="S15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16">
         <v>252502</v>
@@ -1965,13 +2034,16 @@
       <c r="R16">
         <v>133</v>
       </c>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="S16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17">
         <v>249204</v>
@@ -2021,13 +2093,16 @@
       <c r="R17">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="S17" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18">
         <v>237265</v>
@@ -2077,13 +2152,16 @@
       <c r="R18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="S18" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>228195</v>
@@ -2133,13 +2211,16 @@
       <c r="R19">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="S19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20">
         <v>215210</v>
@@ -2189,13 +2270,16 @@
       <c r="R20">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="S20" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21">
         <v>195633</v>
@@ -2245,13 +2329,16 @@
       <c r="R21">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="S21" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22">
         <v>144064</v>
@@ -2301,13 +2388,16 @@
       <c r="R22">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="S22" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23">
         <v>122754</v>
@@ -2357,13 +2447,16 @@
       <c r="R23">
         <v>64</v>
       </c>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="S23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24">
         <v>121226</v>
@@ -2413,13 +2506,16 @@
       <c r="R24">
         <v>165</v>
       </c>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="S24" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25">
         <v>118561</v>
@@ -2469,13 +2565,16 @@
       <c r="R25">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="S25" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26">
         <v>112383</v>
@@ -2525,13 +2624,16 @@
       <c r="R26">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="S26" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27">
         <v>96922</v>
@@ -2581,13 +2683,16 @@
       <c r="R27">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="S27" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28">
         <v>95006</v>
@@ -2637,13 +2742,16 @@
       <c r="R28">
         <v>759</v>
       </c>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="S28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29">
         <v>90537</v>
@@ -2693,13 +2801,16 @@
       <c r="R29">
         <v>68</v>
       </c>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="S29" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C30">
         <v>86423</v>
@@ -2749,13 +2860,16 @@
       <c r="R30">
         <v>64</v>
       </c>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="S30" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31">
         <v>84565</v>
@@ -2805,13 +2919,16 @@
       <c r="R31">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="S31" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C32">
         <v>82323</v>
@@ -2861,13 +2978,16 @@
       <c r="R32">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="S32" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33">
         <v>81067</v>
@@ -2917,13 +3037,16 @@
       <c r="R33">
         <v>17</v>
       </c>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="S33" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C34">
         <v>80431</v>
@@ -2973,13 +3096,16 @@
       <c r="R34">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="S34" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C35">
         <v>78261</v>
@@ -3029,13 +3155,16 @@
       <c r="R35">
         <v>39</v>
       </c>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="S35" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C36">
         <v>76536</v>
@@ -3085,13 +3214,16 @@
       <c r="R36">
         <v>39</v>
       </c>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="S36" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C37">
         <v>72016</v>
@@ -3141,13 +3273,16 @@
       <c r="R37">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:18">
+      <c r="S37" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C38">
         <v>71418</v>
@@ -3197,13 +3332,16 @@
       <c r="R38">
         <v>18</v>
       </c>
-    </row>
-    <row r="39" spans="1:18">
+      <c r="S38" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C39">
         <v>70727</v>
@@ -3253,13 +3391,16 @@
       <c r="R39">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:18">
+      <c r="S39" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C40">
         <v>68503</v>
@@ -3309,13 +3450,16 @@
       <c r="R40">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:18">
+      <c r="S40" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C41">
         <v>62061</v>
@@ -3365,13 +3509,16 @@
       <c r="R41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:18">
+      <c r="S41" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C42">
         <v>59273</v>
@@ -3421,13 +3568,16 @@
       <c r="R42">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="1:18">
+      <c r="S42" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C43">
         <v>57501</v>
@@ -3477,13 +3627,16 @@
       <c r="R43">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="1:18">
+      <c r="S43" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C44">
         <v>54797</v>
@@ -3533,13 +3686,16 @@
       <c r="R44">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:18">
+      <c r="S44" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C45">
         <v>54339</v>
@@ -3589,13 +3745,16 @@
       <c r="R45">
         <v>104</v>
       </c>
-    </row>
-    <row r="46" spans="1:18">
+      <c r="S45" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C46">
         <v>52061</v>
@@ -3645,13 +3804,16 @@
       <c r="R46">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:18">
+      <c r="S46" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C47">
         <v>50324</v>
@@ -3701,13 +3863,16 @@
       <c r="R47">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="1:18">
+      <c r="S47" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C48">
         <v>45755</v>
@@ -3757,13 +3922,16 @@
       <c r="R48">
         <v>88</v>
       </c>
-    </row>
-    <row r="49" spans="1:18">
+      <c r="S48" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C49">
         <v>45244</v>
@@ -3813,13 +3981,16 @@
       <c r="R49">
         <v>665</v>
       </c>
-    </row>
-    <row r="50" spans="1:18">
+      <c r="S49" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C50">
         <v>42889</v>
@@ -3869,13 +4040,16 @@
       <c r="R50">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:18">
+      <c r="S50" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C51">
         <v>42263</v>
@@ -3925,13 +4099,16 @@
       <c r="R51">
         <v>135</v>
       </c>
-    </row>
-    <row r="52" spans="1:18">
+      <c r="S51" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C52">
         <v>40097</v>
@@ -3981,13 +4158,16 @@
       <c r="R52">
         <v>77</v>
       </c>
-    </row>
-    <row r="53" spans="1:18">
+      <c r="S52" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C53">
         <v>39985</v>
@@ -4037,13 +4217,16 @@
       <c r="R53">
         <v>17</v>
       </c>
-    </row>
-    <row r="54" spans="1:18">
+      <c r="S53" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C54">
         <v>39162</v>
@@ -4093,13 +4276,16 @@
       <c r="R54">
         <v>24</v>
       </c>
-    </row>
-    <row r="55" spans="1:18">
+      <c r="S54" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C55">
         <v>37015</v>
@@ -4149,13 +4335,16 @@
       <c r="R55">
         <v>421</v>
       </c>
-    </row>
-    <row r="56" spans="1:18">
+      <c r="S55" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C56">
         <v>36269</v>
@@ -4205,13 +4394,16 @@
       <c r="R56">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="1:18">
+      <c r="S56" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C57">
         <v>33626</v>
@@ -4261,13 +4453,16 @@
       <c r="R57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:18">
+      <c r="S57" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C58">
         <v>33376</v>
@@ -4317,13 +4512,16 @@
       <c r="R58">
         <v>13</v>
       </c>
-    </row>
-    <row r="59" spans="1:18">
+      <c r="S58" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C59">
         <v>29644</v>
@@ -4373,13 +4571,16 @@
       <c r="R59">
         <v>27</v>
       </c>
-    </row>
-    <row r="60" spans="1:18">
+      <c r="S59" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C60">
         <v>28809</v>
@@ -4429,13 +4630,16 @@
       <c r="R60">
         <v>24</v>
       </c>
-    </row>
-    <row r="61" spans="1:18">
+      <c r="S60" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C61">
         <v>27332</v>
@@ -4485,13 +4689,16 @@
       <c r="R61">
         <v>12</v>
       </c>
-    </row>
-    <row r="62" spans="1:18">
+      <c r="S61" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C62">
         <v>26628</v>
@@ -4541,13 +4748,16 @@
       <c r="R62">
         <v>31</v>
       </c>
-    </row>
-    <row r="63" spans="1:18">
+      <c r="S62" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C63">
         <v>26372</v>
@@ -4597,13 +4807,16 @@
       <c r="R63">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="1:18">
+      <c r="S63" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C64">
         <v>24411</v>
@@ -4653,13 +4866,16 @@
       <c r="R64">
         <v>161</v>
       </c>
-    </row>
-    <row r="65" spans="1:18">
+      <c r="S64" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C65">
         <v>23280</v>
@@ -4709,13 +4925,16 @@
       <c r="R65">
         <v>18</v>
       </c>
-    </row>
-    <row r="66" spans="1:18">
+      <c r="S65" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C66">
         <v>22214</v>
@@ -4765,13 +4984,16 @@
       <c r="R66">
         <v>39</v>
       </c>
-    </row>
-    <row r="67" spans="1:18">
+      <c r="S66" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C67">
         <v>21837</v>
@@ -4821,13 +5043,16 @@
       <c r="R67">
         <v>10</v>
       </c>
-    </row>
-    <row r="68" spans="1:18">
+      <c r="S67" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C68">
         <v>21070</v>
@@ -4877,13 +5102,16 @@
       <c r="R68">
         <v>51</v>
       </c>
-    </row>
-    <row r="69" spans="1:18">
+      <c r="S68" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C69">
         <v>20900</v>
@@ -4933,13 +5161,16 @@
       <c r="R69">
         <v>246</v>
       </c>
-    </row>
-    <row r="70" spans="1:18">
+      <c r="S69" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C70">
         <v>20272</v>
@@ -4989,13 +5220,16 @@
       <c r="R70">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="1:18">
+      <c r="S70" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C71">
         <v>19544</v>
@@ -5045,13 +5279,16 @@
       <c r="R71">
         <v>25</v>
       </c>
-    </row>
-    <row r="72" spans="1:18">
+      <c r="S71" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C72">
         <v>17731</v>
@@ -5101,13 +5338,16 @@
       <c r="R72">
         <v>15</v>
       </c>
-    </row>
-    <row r="73" spans="1:18">
+      <c r="S72" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C73">
         <v>17718</v>
@@ -5157,13 +5397,16 @@
       <c r="R73">
         <v>179</v>
       </c>
-    </row>
-    <row r="74" spans="1:18">
+      <c r="S73" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C74">
         <v>16447</v>
@@ -5213,13 +5456,16 @@
       <c r="R74">
         <v>253</v>
       </c>
-    </row>
-    <row r="75" spans="1:18">
+      <c r="S74" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C75">
         <v>14519</v>
@@ -5269,13 +5515,16 @@
       <c r="R75">
         <v>32</v>
       </c>
-    </row>
-    <row r="76" spans="1:18">
+      <c r="S75" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C76">
         <v>14442</v>
@@ -5325,13 +5574,16 @@
       <c r="R76">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="1:18">
+      <c r="S76" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C77">
         <v>13722</v>
@@ -5381,13 +5633,16 @@
       <c r="R77">
         <v>26</v>
       </c>
-    </row>
-    <row r="78" spans="1:18">
+      <c r="S77" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C78">
         <v>13687</v>
@@ -5437,13 +5692,16 @@
       <c r="R78">
         <v>22</v>
       </c>
-    </row>
-    <row r="79" spans="1:18">
+      <c r="S78" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C79">
         <v>13014</v>
@@ -5493,13 +5751,16 @@
       <c r="R79">
         <v>24</v>
       </c>
-    </row>
-    <row r="80" spans="1:18">
+      <c r="S79" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C80">
         <v>12708</v>
@@ -5549,13 +5810,16 @@
       <c r="R80">
         <v>590</v>
       </c>
-    </row>
-    <row r="81" spans="1:18">
+      <c r="S80" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C81">
         <v>11780</v>
@@ -5605,13 +5869,16 @@
       <c r="R81">
         <v>109585</v>
       </c>
-    </row>
-    <row r="82" spans="1:18">
+      <c r="S81" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C82">
         <v>11399</v>
@@ -5661,13 +5928,16 @@
       <c r="R82">
         <v>19</v>
       </c>
-    </row>
-    <row r="83" spans="1:18">
+      <c r="S82" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C83">
         <v>10887</v>
@@ -5717,13 +5987,16 @@
       <c r="R83">
         <v>144</v>
       </c>
-    </row>
-    <row r="84" spans="1:18">
+      <c r="S83" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C84">
         <v>9468</v>
@@ -5773,13 +6046,16 @@
       <c r="R84">
         <v>11</v>
       </c>
-    </row>
-    <row r="85" spans="1:18">
+      <c r="S84" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C85">
         <v>9355</v>
@@ -5829,13 +6105,16 @@
       <c r="R85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:18">
+      <c r="S85" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19">
       <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C86">
         <v>9063</v>
@@ -5885,13 +6164,16 @@
       <c r="R86">
         <v>33</v>
       </c>
-    </row>
-    <row r="87" spans="1:18">
+      <c r="S86" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C87">
         <v>8127</v>
@@ -5941,13 +6223,16 @@
       <c r="R87">
         <v>7</v>
       </c>
-    </row>
-    <row r="88" spans="1:18">
+      <c r="S87" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C88">
         <v>7787</v>
@@ -5997,13 +6282,16 @@
       <c r="R88">
         <v>26</v>
       </c>
-    </row>
-    <row r="89" spans="1:18">
+      <c r="S88" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19">
       <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C89">
         <v>7665</v>
@@ -6053,13 +6341,16 @@
       <c r="R89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:18">
+      <c r="S89" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19">
       <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C90">
         <v>7664</v>
@@ -6109,13 +6400,16 @@
       <c r="R90">
         <v>914</v>
       </c>
-    </row>
-    <row r="91" spans="1:18">
+      <c r="S90" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19">
       <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C91">
         <v>7582</v>
@@ -6165,13 +6459,16 @@
       <c r="R91">
         <v>617</v>
       </c>
-    </row>
-    <row r="92" spans="1:18">
+      <c r="S91" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C92">
         <v>7554</v>
@@ -6221,13 +6518,16 @@
       <c r="R92">
         <v>14</v>
       </c>
-    </row>
-    <row r="93" spans="1:18">
+      <c r="S92" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19">
       <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C93">
         <v>7486</v>
@@ -6277,13 +6577,16 @@
       <c r="R93">
         <v>200</v>
       </c>
-    </row>
-    <row r="94" spans="1:18">
+      <c r="S93" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19">
       <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C94">
         <v>7073</v>
@@ -6333,13 +6636,16 @@
       <c r="R94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:18">
+      <c r="S94" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19">
       <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C95">
         <v>6444</v>
@@ -6389,13 +6695,16 @@
       <c r="R95">
         <v>81</v>
       </c>
-    </row>
-    <row r="96" spans="1:18">
+      <c r="S95" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19">
       <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C96">
         <v>6375</v>
@@ -6445,13 +6754,16 @@
       <c r="R96">
         <v>53</v>
       </c>
-    </row>
-    <row r="97" spans="1:18">
+      <c r="S96" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C97">
         <v>6016</v>
@@ -6501,13 +6813,16 @@
       <c r="R97">
         <v>74</v>
       </c>
-    </row>
-    <row r="98" spans="1:18">
+      <c r="S97" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C98">
         <v>5672</v>
@@ -6557,13 +6872,16 @@
       <c r="R98">
         <v>20</v>
       </c>
-    </row>
-    <row r="99" spans="1:18">
+      <c r="S98" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C99">
         <v>5466</v>
@@ -6613,13 +6931,16 @@
       <c r="R99">
         <v>32</v>
       </c>
-    </row>
-    <row r="100" spans="1:18">
+      <c r="S99" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C100">
         <v>5334</v>
@@ -6669,13 +6990,16 @@
       <c r="R100">
         <v>17</v>
       </c>
-    </row>
-    <row r="101" spans="1:18">
+      <c r="S100" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19">
       <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C101">
         <v>5123</v>
@@ -6725,13 +7049,16 @@
       <c r="R101">
         <v>17</v>
       </c>
-    </row>
-    <row r="102" spans="1:18">
+      <c r="S101" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19">
       <c r="A102" s="1">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C102">
         <v>4879</v>
@@ -6781,13 +7108,16 @@
       <c r="R102">
         <v>115</v>
       </c>
-    </row>
-    <row r="103" spans="1:18">
+      <c r="S102" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19">
       <c r="A103" s="1">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C103">
         <v>4821</v>
@@ -6837,13 +7167,16 @@
       <c r="R103">
         <v>32</v>
       </c>
-    </row>
-    <row r="104" spans="1:18">
+      <c r="S103" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19">
       <c r="A104" s="1">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C104">
         <v>4680</v>
@@ -6893,13 +7226,16 @@
       <c r="R104">
         <v>6</v>
       </c>
-    </row>
-    <row r="105" spans="1:18">
+      <c r="S104" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19">
       <c r="A105" s="1">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C105">
         <v>4621</v>
@@ -6949,13 +7285,16 @@
       <c r="R105">
         <v>27</v>
       </c>
-    </row>
-    <row r="106" spans="1:18">
+      <c r="S105" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19">
       <c r="A106" s="1">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C106">
         <v>4620</v>
@@ -7005,13 +7344,16 @@
       <c r="R106">
         <v>163</v>
       </c>
-    </row>
-    <row r="107" spans="1:18">
+      <c r="S106" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19">
       <c r="A107" s="1">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C107">
         <v>4491</v>
@@ -7061,13 +7403,16 @@
       <c r="R107">
         <v>573</v>
       </c>
-    </row>
-    <row r="108" spans="1:18">
+      <c r="S107" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19">
       <c r="A108" s="1">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C108">
         <v>4395</v>
@@ -7117,13 +7462,16 @@
       <c r="R108">
         <v>103</v>
       </c>
-    </row>
-    <row r="109" spans="1:18">
+      <c r="S108" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19">
       <c r="A109" s="1">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C109">
         <v>3939</v>
@@ -7173,13 +7521,16 @@
       <c r="R109">
         <v>11</v>
       </c>
-    </row>
-    <row r="110" spans="1:18">
+      <c r="S109" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19">
       <c r="A110" s="1">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C110">
         <v>3902</v>
@@ -7229,13 +7580,16 @@
       <c r="R110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:18">
+      <c r="S110" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19">
       <c r="A111" s="1">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C111">
         <v>3546</v>
@@ -7285,13 +7639,16 @@
       <c r="R111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:18">
+      <c r="S111" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19">
       <c r="A112" s="1">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C112">
         <v>3480</v>
@@ -7341,13 +7698,16 @@
       <c r="R112">
         <v>16</v>
       </c>
-    </row>
-    <row r="113" spans="1:18">
+      <c r="S112" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19">
       <c r="A113" s="1">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C113">
         <v>3345</v>
@@ -7397,13 +7757,16 @@
       <c r="R113">
         <v>93</v>
       </c>
-    </row>
-    <row r="114" spans="1:18">
+      <c r="S113" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19">
       <c r="A114" s="1">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C114">
         <v>3227</v>
@@ -7453,13 +7816,16 @@
       <c r="R114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:18">
+      <c r="S114" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19">
       <c r="A115" s="1">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C115">
         <v>3042</v>
@@ -7509,13 +7875,16 @@
       <c r="R115">
         <v>21</v>
       </c>
-    </row>
-    <row r="116" spans="1:18">
+      <c r="S115" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19">
       <c r="A116" s="1">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C116">
         <v>2968</v>
@@ -7565,13 +7934,16 @@
       <c r="R116">
         <v>42</v>
       </c>
-    </row>
-    <row r="117" spans="1:18">
+      <c r="S116" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19">
       <c r="A117" s="1">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C117">
         <v>2839</v>
@@ -7621,13 +7993,16 @@
       <c r="R117">
         <v>128</v>
       </c>
-    </row>
-    <row r="118" spans="1:18">
+      <c r="S117" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19">
       <c r="A118" s="1">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C118">
         <v>2775</v>
@@ -7677,13 +8052,16 @@
       <c r="R118">
         <v>40</v>
       </c>
-    </row>
-    <row r="119" spans="1:18">
+      <c r="S118" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19">
       <c r="A119" s="1">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C119">
         <v>2734</v>
@@ -7733,13 +8111,16 @@
       <c r="R119">
         <v>9</v>
       </c>
-    </row>
-    <row r="120" spans="1:18">
+      <c r="S119" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19">
       <c r="A120" s="1">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C120">
         <v>2652</v>
@@ -7789,13 +8170,16 @@
       <c r="R120">
         <v>87</v>
       </c>
-    </row>
-    <row r="121" spans="1:18">
+      <c r="S120" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19">
       <c r="A121" s="1">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C121">
         <v>2552</v>
@@ -7845,13 +8229,16 @@
       <c r="R121">
         <v>807</v>
       </c>
-    </row>
-    <row r="122" spans="1:18">
+      <c r="S121" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19">
       <c r="A122" s="1">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C122">
         <v>2523</v>
@@ -7901,13 +8288,16 @@
       <c r="R122">
         <v>20</v>
       </c>
-    </row>
-    <row r="123" spans="1:18">
+      <c r="S122" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19">
       <c r="A123" s="1">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C123">
         <v>2450</v>
@@ -7957,13 +8347,16 @@
       <c r="R123">
         <v>930</v>
       </c>
-    </row>
-    <row r="124" spans="1:18">
+      <c r="S123" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19">
       <c r="A124" s="1">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C124">
         <v>2233</v>
@@ -8013,13 +8406,16 @@
       <c r="R124">
         <v>15</v>
       </c>
-    </row>
-    <row r="125" spans="1:18">
+      <c r="S124" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19">
       <c r="A125" s="1">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C125">
         <v>2194</v>
@@ -8069,13 +8465,16 @@
       <c r="R125">
         <v>5</v>
       </c>
-    </row>
-    <row r="126" spans="1:18">
+      <c r="S125" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19">
       <c r="A126" s="1">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C126">
         <v>2133</v>
@@ -8125,13 +8524,16 @@
       <c r="R126">
         <v>11</v>
       </c>
-    </row>
-    <row r="127" spans="1:18">
+      <c r="S126" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19">
       <c r="A127" s="1">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C127">
         <v>2120</v>
@@ -8181,13 +8583,16 @@
       <c r="R127">
         <v>481</v>
       </c>
-    </row>
-    <row r="128" spans="1:18">
+      <c r="S127" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19">
       <c r="A128" s="1">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C128">
         <v>2111</v>
@@ -8237,13 +8642,16 @@
       <c r="R128">
         <v>45</v>
       </c>
-    </row>
-    <row r="129" spans="1:18">
+      <c r="S128" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19">
       <c r="A129" s="1">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C129">
         <v>2096</v>
@@ -8293,13 +8701,16 @@
       <c r="R129">
         <v>201</v>
       </c>
-    </row>
-    <row r="130" spans="1:18">
+      <c r="S129" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19">
       <c r="A130" s="1">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C130">
         <v>2032</v>
@@ -8349,13 +8760,16 @@
       <c r="R130">
         <v>1315</v>
       </c>
-    </row>
-    <row r="131" spans="1:18">
+      <c r="S130" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19">
       <c r="A131" s="1">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C131">
         <v>1952</v>
@@ -8405,13 +8819,16 @@
       <c r="R131">
         <v>2</v>
       </c>
-    </row>
-    <row r="132" spans="1:18">
+      <c r="S131" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19">
       <c r="A132" s="1">
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C132">
         <v>1936</v>
@@ -8461,13 +8878,16 @@
       <c r="R132">
         <v>130</v>
       </c>
-    </row>
-    <row r="133" spans="1:18">
+      <c r="S132" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19">
       <c r="A133" s="1">
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C133">
         <v>1877</v>
@@ -8517,13 +8937,16 @@
       <c r="R133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:18">
+      <c r="S133" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19">
       <c r="A134" s="1">
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C134">
         <v>1768</v>
@@ -8573,13 +8996,16 @@
       <c r="R134">
         <v>249057</v>
       </c>
-    </row>
-    <row r="135" spans="1:18">
+      <c r="S134" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19">
       <c r="A135" s="1">
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C135">
         <v>1642</v>
@@ -8629,13 +9055,16 @@
       <c r="R135">
         <v>118</v>
       </c>
-    </row>
-    <row r="136" spans="1:18">
+      <c r="S135" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19">
       <c r="A136" s="1">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C136">
         <v>1569</v>
@@ -8685,13 +9114,16 @@
       <c r="R136">
         <v>10</v>
       </c>
-    </row>
-    <row r="137" spans="1:18">
+      <c r="S136" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19">
       <c r="A137" s="1">
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C137">
         <v>1483</v>
@@ -8741,13 +9173,16 @@
       <c r="R137">
         <v>509</v>
       </c>
-    </row>
-    <row r="138" spans="1:18">
+      <c r="S137" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19">
       <c r="A138" s="1">
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C138">
         <v>1318</v>
@@ -8797,13 +9232,16 @@
       <c r="R138">
         <v>27</v>
       </c>
-    </row>
-    <row r="139" spans="1:18">
+      <c r="S138" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19">
       <c r="A139" s="1">
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C139">
         <v>1281</v>
@@ -8853,13 +9291,16 @@
       <c r="R139">
         <v>9</v>
       </c>
-    </row>
-    <row r="140" spans="1:18">
+      <c r="S139" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19">
       <c r="A140" s="1">
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C140">
         <v>1232</v>
@@ -8909,13 +9350,16 @@
       <c r="R140">
         <v>16</v>
       </c>
-    </row>
-    <row r="141" spans="1:18">
+      <c r="S140" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19">
       <c r="A141" s="1">
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C141">
         <v>1224</v>
@@ -8965,13 +9409,16 @@
       <c r="R141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:18">
+      <c r="S141" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19">
       <c r="A142" s="1">
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C142">
         <v>1223</v>
@@ -9021,13 +9468,16 @@
       <c r="R142">
         <v>159</v>
       </c>
-    </row>
-    <row r="143" spans="1:18">
+      <c r="S142" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19">
       <c r="A143" s="1">
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C143">
         <v>1213</v>
@@ -9077,13 +9527,16 @@
       <c r="R143">
         <v>17</v>
       </c>
-    </row>
-    <row r="144" spans="1:18">
+      <c r="S143" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19">
       <c r="A144" s="1">
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C144">
         <v>1208</v>
@@ -9133,13 +9586,16 @@
       <c r="R144">
         <v>6</v>
       </c>
-    </row>
-    <row r="145" spans="1:18">
+      <c r="S144" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19">
       <c r="A145" s="1">
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C145">
         <v>1158</v>
@@ -9189,13 +9645,16 @@
       <c r="R145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:18">
+      <c r="S145" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19">
       <c r="A146" s="1">
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C146">
         <v>1153</v>
@@ -9245,13 +9704,16 @@
       <c r="R146">
         <v>2682</v>
       </c>
-    </row>
-    <row r="147" spans="1:18">
+      <c r="S146" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19">
       <c r="A147" s="1">
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C147">
         <v>1012</v>
@@ -9301,13 +9763,16 @@
       <c r="R147">
         <v>181</v>
       </c>
-    </row>
-    <row r="148" spans="1:18">
+      <c r="S147" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19">
       <c r="A148" s="1">
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C148">
         <v>999</v>
@@ -9357,13 +9822,16 @@
       <c r="R148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:18">
+      <c r="S148" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19">
       <c r="A149" s="1">
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C149">
         <v>995</v>
@@ -9413,13 +9881,16 @@
       <c r="R149">
         <v>3</v>
       </c>
-    </row>
-    <row r="150" spans="1:18">
+      <c r="S149" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19">
       <c r="A150" s="1">
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C150">
         <v>958</v>
@@ -9469,13 +9940,16 @@
       <c r="R150">
         <v>71</v>
       </c>
-    </row>
-    <row r="151" spans="1:18">
+      <c r="S150" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19">
       <c r="A151" s="1">
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C151">
         <v>944</v>
@@ -9525,13 +9999,16 @@
       <c r="R151">
         <v>21</v>
       </c>
-    </row>
-    <row r="152" spans="1:18">
+      <c r="S151" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19">
       <c r="A152" s="1">
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C152">
         <v>942</v>
@@ -9581,13 +10058,16 @@
       <c r="R152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:18">
+      <c r="S152" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19">
       <c r="A153" s="1">
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C153">
         <v>935</v>
@@ -9637,13 +10117,16 @@
       <c r="R153">
         <v>467</v>
       </c>
-    </row>
-    <row r="154" spans="1:18">
+      <c r="S153" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19">
       <c r="A154" s="1">
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C154">
         <v>878</v>
@@ -9693,13 +10176,16 @@
       <c r="R154">
         <v>71</v>
       </c>
-    </row>
-    <row r="155" spans="1:18">
+      <c r="S154" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19">
       <c r="A155" s="1">
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C155">
         <v>804</v>
@@ -9749,13 +10235,16 @@
       <c r="R155">
         <v>34</v>
       </c>
-    </row>
-    <row r="156" spans="1:18">
+      <c r="S155" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19">
       <c r="A156" s="1">
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C156">
         <v>784</v>
@@ -9805,13 +10294,16 @@
       <c r="R156">
         <v>202</v>
       </c>
-    </row>
-    <row r="157" spans="1:18">
+      <c r="S156" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19">
       <c r="A157" s="1">
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C157">
         <v>761</v>
@@ -9861,13 +10353,16 @@
       <c r="R157">
         <v>82</v>
       </c>
-    </row>
-    <row r="158" spans="1:18">
+      <c r="S157" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19">
       <c r="A158" s="1">
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C158">
         <v>742</v>
@@ -9917,13 +10412,16 @@
       <c r="R158">
         <v>244</v>
       </c>
-    </row>
-    <row r="159" spans="1:18">
+      <c r="S158" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19">
       <c r="A159" s="1">
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C159">
         <v>712</v>
@@ -9973,13 +10471,16 @@
       <c r="R159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:18">
+      <c r="S159" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19">
       <c r="A160" s="1">
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C160">
         <v>699</v>
@@ -10029,13 +10530,16 @@
       <c r="R160">
         <v>6</v>
       </c>
-    </row>
-    <row r="161" spans="1:18">
+      <c r="S160" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19">
       <c r="A161" s="1">
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C161">
         <v>671</v>
@@ -10085,13 +10589,16 @@
       <c r="R161">
         <v>25</v>
       </c>
-    </row>
-    <row r="162" spans="1:18">
+      <c r="S161" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19">
       <c r="A162" s="1">
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C162">
         <v>597</v>
@@ -10141,13 +10648,16 @@
       <c r="R162">
         <v>3</v>
       </c>
-    </row>
-    <row r="163" spans="1:18">
+      <c r="S162" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19">
       <c r="A163" s="1">
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C163">
         <v>538</v>
@@ -10197,13 +10707,16 @@
       <c r="R163">
         <v>152</v>
       </c>
-    </row>
-    <row r="164" spans="1:18">
+      <c r="S163" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19">
       <c r="A164" s="1">
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C164">
         <v>509</v>
@@ -10253,13 +10766,16 @@
       <c r="R164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:18">
+      <c r="S164" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19">
       <c r="A165" s="1">
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C165">
         <v>477</v>
@@ -10309,13 +10825,16 @@
       <c r="R165">
         <v>288</v>
       </c>
-    </row>
-    <row r="166" spans="1:18">
+      <c r="S165" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19">
       <c r="A166" s="1">
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C166">
         <v>400</v>
@@ -10365,13 +10884,16 @@
       <c r="R166">
         <v>764</v>
       </c>
-    </row>
-    <row r="167" spans="1:18">
+      <c r="S166" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19">
       <c r="A167" s="1">
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C167">
         <v>396</v>
@@ -10421,13 +10943,16 @@
       <c r="R167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:18">
+      <c r="S167" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19">
       <c r="A168" s="1">
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C168">
         <v>359</v>
@@ -10477,13 +11002,16 @@
       <c r="R168">
         <v>445</v>
       </c>
-    </row>
-    <row r="169" spans="1:18">
+      <c r="S168" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19">
       <c r="A169" s="1">
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C169">
         <v>344</v>
@@ -10533,13 +11061,16 @@
       <c r="R169">
         <v>6</v>
       </c>
-    </row>
-    <row r="170" spans="1:18">
+      <c r="S169" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19">
       <c r="A170" s="1">
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C170">
         <v>336</v>
@@ -10589,13 +11120,16 @@
       <c r="R170">
         <v>10</v>
       </c>
-    </row>
-    <row r="171" spans="1:18">
+      <c r="S170" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19">
       <c r="A171" s="1">
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C171">
         <v>293</v>
@@ -10645,13 +11179,16 @@
       <c r="R171">
         <v>85</v>
       </c>
-    </row>
-    <row r="172" spans="1:18">
+      <c r="S171" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19">
       <c r="A172" s="1">
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C172">
         <v>282</v>
@@ -10701,13 +11238,16 @@
       <c r="R172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:18">
+      <c r="S172" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19">
       <c r="A173" s="1">
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C173">
         <v>279</v>
@@ -10757,13 +11297,16 @@
       <c r="R173">
         <v>22</v>
       </c>
-    </row>
-    <row r="174" spans="1:18">
+      <c r="S173" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19">
       <c r="A174" s="1">
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C174">
         <v>276</v>
@@ -10813,13 +11356,16 @@
       <c r="R174">
         <v>31</v>
       </c>
-    </row>
-    <row r="175" spans="1:18">
+      <c r="S174" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19">
       <c r="A175" s="1">
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C175">
         <v>266</v>
@@ -10869,13 +11415,16 @@
       <c r="R175">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:18">
+      <c r="S175" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19">
       <c r="A176" s="1">
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C176">
         <v>263</v>
@@ -10925,13 +11474,16 @@
       <c r="R176">
         <v>8</v>
       </c>
-    </row>
-    <row r="177" spans="1:18">
+      <c r="S176" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19">
       <c r="A177" s="1">
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C177">
         <v>243</v>
@@ -10981,13 +11533,16 @@
       <c r="R177">
         <v>240</v>
       </c>
-    </row>
-    <row r="178" spans="1:18">
+      <c r="S177" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19">
       <c r="A178" s="1">
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C178">
         <v>210</v>
@@ -11037,13 +11592,16 @@
       <c r="R178">
         <v>146</v>
       </c>
-    </row>
-    <row r="179" spans="1:18">
+      <c r="S178" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19">
       <c r="A179" s="1">
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C179">
         <v>203</v>
@@ -11093,13 +11651,16 @@
       <c r="R179">
         <v>2</v>
       </c>
-    </row>
-    <row r="180" spans="1:18">
+      <c r="S179" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19">
       <c r="A180" s="1">
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C180">
         <v>190</v>
@@ -11149,13 +11710,16 @@
       <c r="R180">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:18">
+      <c r="S180" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19">
       <c r="A181" s="1">
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C181">
         <v>176</v>
@@ -11205,13 +11769,16 @@
       <c r="R181">
         <v>35</v>
       </c>
-    </row>
-    <row r="182" spans="1:18">
+      <c r="S181" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19">
       <c r="A182" s="1">
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C182">
         <v>163</v>
@@ -11261,13 +11828,16 @@
       <c r="R182">
         <v>829</v>
       </c>
-    </row>
-    <row r="183" spans="1:18">
+      <c r="S182" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19">
       <c r="A183" s="1">
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C183">
         <v>157</v>
@@ -11317,13 +11887,16 @@
       <c r="R183">
         <v>2</v>
       </c>
-    </row>
-    <row r="184" spans="1:18">
+      <c r="S183" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19">
       <c r="A184" s="1">
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C184">
         <v>142</v>
@@ -11373,13 +11946,16 @@
       <c r="R184">
         <v>10</v>
       </c>
-    </row>
-    <row r="185" spans="1:18">
+      <c r="S184" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19">
       <c r="A185" s="1">
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C185">
         <v>141</v>
@@ -11429,13 +12005,16 @@
       <c r="R185">
         <v>31</v>
       </c>
-    </row>
-    <row r="186" spans="1:18">
+      <c r="S185" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19">
       <c r="A186" s="1">
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C186">
         <v>133</v>
@@ -11485,13 +12064,16 @@
       <c r="R186">
         <v>23</v>
       </c>
-    </row>
-    <row r="187" spans="1:18">
+      <c r="S186" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19">
       <c r="A187" s="1">
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C187">
         <v>126</v>
@@ -11541,13 +12123,16 @@
       <c r="R187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:18">
+      <c r="S187" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19">
       <c r="A188" s="1">
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C188">
         <v>125</v>
@@ -11597,13 +12182,16 @@
       <c r="R188">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:18">
+      <c r="S188" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19">
       <c r="A189" s="1">
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C189">
         <v>114</v>
@@ -11653,13 +12241,16 @@
       <c r="R189">
         <v>105</v>
       </c>
-    </row>
-    <row r="190" spans="1:18">
+      <c r="S189" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19">
       <c r="A190" s="1">
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C190">
         <v>108</v>
@@ -11709,13 +12300,16 @@
       <c r="R190">
         <v>14</v>
       </c>
-    </row>
-    <row r="191" spans="1:18">
+      <c r="S190" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19">
       <c r="A191" s="1">
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C191">
         <v>92</v>
@@ -11765,13 +12359,16 @@
       <c r="R191">
         <v>65</v>
       </c>
-    </row>
-    <row r="192" spans="1:18">
+      <c r="S191" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19">
       <c r="A192" s="1">
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C192">
         <v>89</v>
@@ -11821,13 +12418,16 @@
       <c r="R192">
         <v>42</v>
       </c>
-    </row>
-    <row r="193" spans="1:18">
+      <c r="S192" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19">
       <c r="A193" s="1">
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C193">
         <v>64</v>
@@ -11877,13 +12477,16 @@
       <c r="R193">
         <v>48</v>
       </c>
-    </row>
-    <row r="194" spans="1:18">
+      <c r="S193" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="194" spans="1:19">
       <c r="A194" s="1">
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C194">
         <v>56</v>
@@ -11933,13 +12536,16 @@
       <c r="R194">
         <v>45</v>
       </c>
-    </row>
-    <row r="195" spans="1:18">
+      <c r="S194" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19">
       <c r="A195" s="1">
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C195">
         <v>53</v>
@@ -11989,13 +12595,16 @@
       <c r="R195">
         <v>33</v>
       </c>
-    </row>
-    <row r="196" spans="1:18">
+      <c r="S195" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19">
       <c r="A196" s="1">
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C196">
         <v>46</v>
@@ -12045,13 +12654,16 @@
       <c r="R196">
         <v>160</v>
       </c>
-    </row>
-    <row r="197" spans="1:18">
+      <c r="S196" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19">
       <c r="A197" s="1">
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C197">
         <v>31</v>
@@ -12101,13 +12713,16 @@
       <c r="R197">
         <v>152</v>
       </c>
-    </row>
-    <row r="198" spans="1:18">
+      <c r="S197" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19">
       <c r="A198" s="1">
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C198">
         <v>27</v>
@@ -12157,13 +12772,16 @@
       <c r="R198">
         <v>134</v>
       </c>
-    </row>
-    <row r="199" spans="1:18">
+      <c r="S198" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="199" spans="1:19">
       <c r="A199" s="1">
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C199">
         <v>25</v>
@@ -12213,13 +12831,16 @@
       <c r="R199">
         <v>47</v>
       </c>
-    </row>
-    <row r="200" spans="1:18">
+      <c r="S199" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="200" spans="1:19">
       <c r="A200" s="1">
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C200">
         <v>25</v>
@@ -12269,13 +12890,16 @@
       <c r="R200">
         <v>312</v>
       </c>
-    </row>
-    <row r="201" spans="1:18">
+      <c r="S200" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="201" spans="1:19">
       <c r="A201" s="1">
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C201">
         <v>24</v>
@@ -12325,13 +12949,16 @@
       <c r="R201">
         <v>18</v>
       </c>
-    </row>
-    <row r="202" spans="1:18">
+      <c r="S201" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="202" spans="1:19">
       <c r="A202" s="1">
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C202">
         <v>22</v>
@@ -12381,13 +13008,16 @@
       <c r="R202">
         <v>26</v>
       </c>
-    </row>
-    <row r="203" spans="1:18">
+      <c r="S202" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="203" spans="1:19">
       <c r="A203" s="1">
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C203">
         <v>20</v>
@@ -12437,13 +13067,16 @@
       <c r="R203">
         <v>244</v>
       </c>
-    </row>
-    <row r="204" spans="1:18">
+      <c r="S203" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="204" spans="1:19">
       <c r="A204" s="1">
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C204">
         <v>18</v>
@@ -12493,13 +13126,16 @@
       <c r="R204">
         <v>72</v>
       </c>
-    </row>
-    <row r="205" spans="1:18">
+      <c r="S204" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="205" spans="1:19">
       <c r="A205" s="1">
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C205">
         <v>17</v>
@@ -12549,13 +13185,16 @@
       <c r="R205">
         <v>46</v>
       </c>
-    </row>
-    <row r="206" spans="1:18">
+      <c r="S205" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="206" spans="1:19">
       <c r="A206" s="1">
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C206">
         <v>14</v>
@@ -12605,13 +13244,16 @@
       <c r="R206">
         <v>9</v>
       </c>
-    </row>
-    <row r="207" spans="1:18">
+      <c r="S206" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="207" spans="1:19">
       <c r="A207" s="1">
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C207">
         <v>13</v>
@@ -12661,13 +13303,16 @@
       <c r="R207">
         <v>82</v>
       </c>
-    </row>
-    <row r="208" spans="1:18">
+      <c r="S207" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="208" spans="1:19">
       <c r="A208" s="1">
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C208">
         <v>13</v>
@@ -12717,13 +13362,16 @@
       <c r="R208">
         <v>2</v>
       </c>
-    </row>
-    <row r="209" spans="1:18">
+      <c r="S208" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="209" spans="1:19">
       <c r="A209" s="1">
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C209">
         <v>13</v>
@@ -12773,13 +13421,16 @@
       <c r="R209">
         <v>62</v>
       </c>
-    </row>
-    <row r="210" spans="1:18">
+      <c r="S209" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="210" spans="1:19">
       <c r="A210" s="1">
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C210">
         <v>12</v>
@@ -12829,13 +13480,16 @@
       <c r="R210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:18">
+      <c r="S210" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="211" spans="1:19">
       <c r="A211" s="1">
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C211">
         <v>10</v>
@@ -12885,13 +13539,16 @@
       <c r="R211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:18">
+      <c r="S211" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="212" spans="1:19">
       <c r="A212" s="1">
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C212">
         <v>9</v>
@@ -12941,13 +13598,16 @@
       <c r="R212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:18">
+      <c r="S212" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="213" spans="1:19">
       <c r="A213" s="1">
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C213">
         <v>9</v>
@@ -12997,13 +13657,16 @@
       <c r="R213">
         <v>20</v>
       </c>
-    </row>
-    <row r="214" spans="1:18">
+      <c r="S213" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="214" spans="1:19">
       <c r="A214" s="1">
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C214">
         <v>9</v>
@@ -13053,13 +13716,16 @@
       <c r="R214">
         <v>8</v>
       </c>
-    </row>
-    <row r="215" spans="1:18">
+      <c r="S214" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="215" spans="1:19">
       <c r="A215" s="1">
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C215">
         <v>4</v>
@@ -13109,13 +13775,16 @@
       <c r="R215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:18">
+      <c r="S215" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="216" spans="1:19">
       <c r="A216" s="1">
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C216">
         <v>3</v>
@@ -13164,6 +13833,9 @@
       </c>
       <c r="R216">
         <v>28</v>
+      </c>
+      <c r="S216" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
